--- a/Components/ExcelRTCpy/demoEV3.xlsx
+++ b/Components/ExcelRTCpy/demoEV3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\信彦\Desktop\作業\learning_script\Components\ExcelRTCpy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\信彦\Documents\GitHub\robomech2016_tutorial\Components\ExcelRTCpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
-    <t>/:192.168.11.1:EducatorVehicle0:velocity2D</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -37,27 +34,6 @@
   </si>
   <si>
     <t>Sheet1</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:angle</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:lcd</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:odometry</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:gyro</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:color</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:light_reflect</t>
-  </si>
-  <si>
-    <t>/:192.168.11.1:EducatorVehicle0:touch</t>
   </si>
   <si>
     <t>C</t>
@@ -176,6 +152,38 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:light_reflect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:angle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:velocity2D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:lcd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:odometry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:gyro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/:192.168.0.1:EducatorVehicle0:touch</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -585,18 +593,18 @@
         <v>96.099999999996683</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -610,12 +618,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -623,29 +631,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -659,12 +667,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -672,18 +680,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -691,15 +699,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="b">
         <v>0</v>
@@ -719,24 +727,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="b">
         <v>0</v>
@@ -744,19 +752,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -764,16 +772,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -781,19 +789,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -801,16 +809,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -818,16 +826,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -835,16 +843,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -852,19 +860,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -873,5 +881,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>